--- a/data/trans_bre/P23_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Edad-trans_bre.xlsx
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-25,06%</t>
+          <t>-13,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-5,61%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -1,57</t>
+          <t>-11,65; 0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,81</t>
+          <t>-8,43; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,91; -5,3</t>
+          <t>-26,09; 1,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 60,5</t>
+          <t>-21,48; 11,92</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-16,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,36%</t>
+          <t>-31,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-19,86%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,06; -0,46</t>
+          <t>-22,37; -11,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 0,59</t>
+          <t>-15,66; -4,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,38; -1,45</t>
+          <t>-39,65; -22,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 2,47</t>
+          <t>-29,77; -9,57</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-16,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-12,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>-30,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-26,82%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -0,03</t>
+          <t>-21,48; -10,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 1,45</t>
+          <t>-18,27; -7,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 0,3</t>
+          <t>-38,04; -20,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 5,84</t>
+          <t>-36,2; -15,45</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-17,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,7%</t>
+          <t>-37,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>-14,27%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -2,81</t>
+          <t>-23,51; -10,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 1,66</t>
+          <t>-13,23; -0,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,42; -7,62</t>
+          <t>-48,42; -26,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 7,53</t>
+          <t>-27,09; -1,99</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>-21,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,58</t>
+          <t>-21,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>-65,12%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-32,59%</t>
+          <t>-58,4%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -1,76</t>
+          <t>-27,53; -15,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,77; -5,08</t>
+          <t>-26,99; -14,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,96; -6,44</t>
+          <t>-74,35; -51,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,87; -18,68</t>
+          <t>-67,99; -45,02</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-13,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-10,89</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-64,74%</t>
+          <t>-89,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>-77,85%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -4,8</t>
+          <t>-16,93; -10,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -5,56</t>
+          <t>-14,51; -7,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,89; -44,04</t>
+          <t>-94,36; -80,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,51; -49,52</t>
+          <t>-87,51; -63,44</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,19</t>
+          <t>-16,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-25,49%</t>
+          <t>-39,59%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-28,59%</t>
+          <t>-30,6%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -6,06</t>
+          <t>-19,2; -14,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -4,24</t>
+          <t>-14,71; -9,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,27; -19,36</t>
+          <t>-44,14; -35,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,29; -19,58</t>
+          <t>-35,64; -25,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 0,25</t>
+          <t>-11,75; 0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 4,02</t>
+          <t>-8,33; 5,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 1,19</t>
+          <t>-25,96; 1,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 11,92</t>
+          <t>-21,23; 15,29</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -11,48</t>
+          <t>-22,12; -10,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,66; -4,56</t>
+          <t>-15,8; -4,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,65; -22,16</t>
+          <t>-39,33; -21,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,77; -9,57</t>
+          <t>-29,44; -9,52</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,48; -10,42</t>
+          <t>-21,6; -10,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,27; -7,11</t>
+          <t>-18,25; -7,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,04; -20,37</t>
+          <t>-38,7; -20,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,2; -15,45</t>
+          <t>-36,14; -16,07</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,51; -10,76</t>
+          <t>-23,77; -11,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,23; -0,85</t>
+          <t>-12,7; -0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,42; -26,52</t>
+          <t>-48,2; -27,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -1,99</t>
+          <t>-26,54; -0,64</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,53; -15,77</t>
+          <t>-27,23; -15,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,99; -14,6</t>
+          <t>-27,04; -14,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-74,35; -51,78</t>
+          <t>-75,42; -52,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-67,99; -45,02</t>
+          <t>-67,96; -45,19</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,93; -10,43</t>
+          <t>-16,82; -10,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -7,7</t>
+          <t>-14,45; -7,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,36; -80,43</t>
+          <t>-94,41; -79,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,51; -63,44</t>
+          <t>-87,0; -63,25</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -14,72</t>
+          <t>-19,23; -14,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -9,95</t>
+          <t>-14,5; -9,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -35,64</t>
+          <t>-43,99; -35,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,64; -25,81</t>
+          <t>-35,45; -25,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 0,56</t>
+          <t>-12,28; -0,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 5,06</t>
+          <t>-8,42; 4,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 1,51</t>
+          <t>-27,09; 0,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 15,29</t>
+          <t>-20,95; 13,53</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,12; -10,97</t>
+          <t>-22,47; -10,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -4,7</t>
+          <t>-15,52; -3,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,33; -21,0</t>
+          <t>-39,82; -21,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,44; -9,52</t>
+          <t>-29,19; -8,42</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,6; -10,52</t>
+          <t>-21,37; -10,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; -7,23</t>
+          <t>-17,97; -7,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -20,93</t>
+          <t>-38,21; -20,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -16,07</t>
+          <t>-35,89; -16,27</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -11,68</t>
+          <t>-23,32; -11,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -0,33</t>
+          <t>-12,46; -0,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,2; -27,03</t>
+          <t>-48,01; -27,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,54; -0,64</t>
+          <t>-25,63; -0,66</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,23; -15,87</t>
+          <t>-27,96; -15,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,04; -14,76</t>
+          <t>-27,33; -15,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-75,42; -52,89</t>
+          <t>-75,96; -52,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-67,96; -45,19</t>
+          <t>-68,56; -45,77</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,82; -10,29</t>
+          <t>-16,7; -10,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -7,54</t>
+          <t>-14,31; -7,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,41; -79,14</t>
+          <t>-94,49; -80,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,0; -63,25</t>
+          <t>-87,51; -66,28</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -14,65</t>
+          <t>-18,96; -14,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -9,97</t>
+          <t>-14,4; -9,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -35,45</t>
+          <t>-43,67; -35,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -25,49</t>
+          <t>-35,29; -25,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Edad-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,14 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -567,11 +588,13 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -591,12 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-7,81</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-13,57%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-5,61%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-22,52%</t>
         </is>
       </c>
     </row>
@@ -619,19 +652,29 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>-14,21; -1,56</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-27,09; 0,25</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>-20,95; 13,53</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-37,52; -4,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -651,12 +694,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>-7,6</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-31,07%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-19,86%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-16,63%</t>
         </is>
       </c>
     </row>
@@ -679,19 +732,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-13,31; -1,2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-39,82; -21,02</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-29,19; -8,42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-27,83; -3,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -711,12 +774,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-6,58</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-30,08%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-26,82%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-16,45%</t>
         </is>
       </c>
     </row>
@@ -739,19 +812,29 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-11,9; -1,3</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-38,21; -20,76</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-35,89; -16,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-27,86; -3,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -771,12 +854,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-7,32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-37,82%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-14,27%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-17,02%</t>
         </is>
       </c>
     </row>
@@ -799,19 +892,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-12,87; -1,79</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-48,01; -27,2</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-25,63; -0,66</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-28,15; -4,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -831,12 +934,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-7,71</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-65,12%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-58,4%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-25,1%</t>
         </is>
       </c>
     </row>
@@ -859,19 +972,29 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-14,26; -2,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-75,96; -52,63</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-68,56; -45,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-41,58; -8,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -881,22 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>-16,25</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,89</t>
+          <t>-11,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-89,02%</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-77,85%</t>
+          <t>-89,43%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-67,55%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-54,36%</t>
         </is>
       </c>
     </row>
@@ -909,29 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,7; -10,43</t>
+          <t>-21,15; -11,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -7,65</t>
+          <t>-16,57; -5,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,49; -80,67</t>
+          <t>-15,19; -4,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,51; -66,28</t>
+          <t>-95,85; -78,88</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-82,49; -40,16</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-71,2; -30,58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -941,22 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,1</t>
+          <t>-9,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-39,59%</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>-87,14%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-90,43%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-79,1%</t>
         </is>
       </c>
     </row>
@@ -969,43 +1122,134 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-14,18; -5,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-14,97; -5,95</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; -4,18</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-96,77; -61,46</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-98,01; -67,99</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-92,48; -51,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-16,74</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-12,1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-8,95</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-39,59%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-30,6%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-25,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-18,96; -14,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-14,4; -9,77</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; -6,78</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-43,67; -35,4</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-35,29; -25,35</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-31,15; -19,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P23_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Edad-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -0,03</t>
+          <t>-12,0; 0,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 4,47</t>
+          <t>-8,22; 4,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -1,56</t>
+          <t>-14,51; -1,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 0,25</t>
+          <t>-26,38; 1,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 13,53</t>
+          <t>-21,17; 13,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,52; -4,86</t>
+          <t>-37,99; -5,72</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,47; -10,86</t>
+          <t>-22,14; -11,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -3,97</t>
+          <t>-15,73; -4,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -1,2</t>
+          <t>-13,4; -1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -21,02</t>
+          <t>-39,09; -22,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -8,42</t>
+          <t>-29,33; -9,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -3,35</t>
+          <t>-27,59; -3,18</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,37; -10,45</t>
+          <t>-21,09; -9,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -7,32</t>
+          <t>-18,36; -7,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,9; -1,3</t>
+          <t>-11,81; -1,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,21; -20,76</t>
+          <t>-38,13; -19,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,89; -16,27</t>
+          <t>-36,56; -16,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,86; -3,29</t>
+          <t>-27,59; -4,07</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,32; -11,58</t>
+          <t>-22,89; -10,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,46; -0,29</t>
+          <t>-11,99; -0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -1,79</t>
+          <t>-12,56; -1,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,01; -27,2</t>
+          <t>-46,96; -24,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; -0,66</t>
+          <t>-24,83; 0,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,15; -4,5</t>
+          <t>-27,31; -4,39</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,96; -15,74</t>
+          <t>-27,33; -15,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,33; -15,43</t>
+          <t>-27,4; -15,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -2,37</t>
+          <t>-13,9; -1,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-75,96; -52,63</t>
+          <t>-74,02; -51,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,56; -45,77</t>
+          <t>-69,23; -46,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -8,23</t>
+          <t>-41,2; -4,9</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,15; -11,82</t>
+          <t>-20,93; -12,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -5,86</t>
+          <t>-16,86; -5,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -4,43</t>
+          <t>-14,65; -4,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-95,85; -78,88</t>
+          <t>-95,6; -78,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,49; -40,16</t>
+          <t>-81,78; -42,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,2; -30,58</t>
+          <t>-71,55; -29,22</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -5,42</t>
+          <t>-14,09; -5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -5,95</t>
+          <t>-15,08; -5,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -4,18</t>
+          <t>-11,19; -4,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-96,77; -61,46</t>
+          <t>-96,55; -63,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-98,01; -67,99</t>
+          <t>-97,81; -67,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-92,48; -51,2</t>
+          <t>-92,21; -48,3</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -14,68</t>
+          <t>-18,98; -14,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -9,77</t>
+          <t>-14,31; -9,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -6,78</t>
+          <t>-11,0; -6,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,67; -35,4</t>
+          <t>-43,56; -34,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -25,35</t>
+          <t>-35,21; -25,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,15; -19,86</t>
+          <t>-30,39; -19,66</t>
         </is>
       </c>
     </row>
